--- a/medicine/Médecine vétérinaire/Yrjö_Kokko/Yrjö_Kokko.xlsx
+++ b/medicine/Médecine vétérinaire/Yrjö_Kokko/Yrjö_Kokko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yrj%C3%B6_Kokko</t>
+          <t>Yrjö_Kokko</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yrjö Olavi Samuli Kokko (né le 16 octobre 1903 à Serdopol dans le Grand-duché de Finlande (Empire russe), aujourd'hui Sortavala en Russie, mort le 6 septembre 1977 à Helsinki) est un écrivain et vétérinaire finlandais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yrj%C3%B6_Kokko</t>
+          <t>Yrjö_Kokko</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est surtout connu pour son conte de fées Pessi and Illusia et pour avoir lancé le travail de conservation du Cygne chanteur en Finlande[1].
-Il était marié à la dentiste Aune Ilus. Sa fille Anna Ungelo est aussi écrivain[2] et professeur de finnois à l'Institut national des langues et civilisations orientales a Paris jusqu'en 1997[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est surtout connu pour son conte de fées Pessi and Illusia et pour avoir lancé le travail de conservation du Cygne chanteur en Finlande.
+Il était marié à la dentiste Aune Ilus. Sa fille Anna Ungelo est aussi écrivain et professeur de finnois à l'Institut national des langues et civilisations orientales a Paris jusqu'en 1997.
 Il a reçu la médaille Pro Finlandia en 1957.
 </t>
         </is>
